--- a/Documentation/Resultat.xlsx
+++ b/Documentation/Resultat.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="15315" windowHeight="6975" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="210" windowWidth="15315" windowHeight="6915"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -224,11 +224,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="176436352"/>
-        <c:axId val="176437888"/>
+        <c:axId val="118715904"/>
+        <c:axId val="118717440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="176436352"/>
+        <c:axId val="118715904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -237,7 +237,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="176437888"/>
+        <c:crossAx val="118717440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -245,7 +245,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="176437888"/>
+        <c:axId val="118717440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -256,7 +256,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="176436352"/>
+        <c:crossAx val="118715904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -352,11 +352,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="38031744"/>
-        <c:axId val="38033280"/>
+        <c:axId val="118737920"/>
+        <c:axId val="120267520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="38031744"/>
+        <c:axId val="118737920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -365,7 +365,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="38033280"/>
+        <c:crossAx val="120267520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -373,7 +373,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="38033280"/>
+        <c:axId val="120267520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -384,7 +384,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="38031744"/>
+        <c:crossAx val="118737920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -763,10 +763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -849,6 +849,11 @@
         <v>43.96</v>
       </c>
     </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>0.45429999999999998</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -859,7 +864,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>

--- a/Documentation/Resultat.xlsx
+++ b/Documentation/Resultat.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>Random</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>41.3333</t>
+  </si>
+  <si>
+    <t>me 30/08</t>
+  </si>
+  <si>
+    <t>me 13/09</t>
   </si>
 </sst>
 </file>
@@ -149,7 +155,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$1:$F$1</c:f>
+              <c:f>Sheet1!$C$2:$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -169,7 +175,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$F$2</c:f>
+              <c:f>Sheet1!$C$3:$F$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -195,7 +201,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$4:$F$4</c:f>
+              <c:f>Sheet1!$C$5:$F$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -224,11 +230,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="118715904"/>
-        <c:axId val="118717440"/>
+        <c:axId val="270724480"/>
+        <c:axId val="270726272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="118715904"/>
+        <c:axId val="270724480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -237,7 +243,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118717440"/>
+        <c:crossAx val="270726272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -245,7 +251,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="118717440"/>
+        <c:axId val="270726272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -256,7 +262,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118715904"/>
+        <c:crossAx val="270724480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -295,52 +301,81 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$2:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Random</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>HomeWin</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Me</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Bookie</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$C$2:$C$11</c:f>
+              <c:f>Sheet1!$C$20:$F$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>40.375</c:v>
+                  <c:v>33.33</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40.958300000000001</c:v>
+                  <c:v>44.21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40.916699999999999</c:v>
+                  <c:v>51.05</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40.916699999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40.541699999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>40.75</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>40.409999999999997</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40.916699999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>42.041699999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>41.541699999999999</c:v>
+                  <c:v>52.89</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$22:$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>47.14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46.57</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44.72</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43.96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -350,13 +385,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="118737920"/>
-        <c:axId val="120267520"/>
-      </c:lineChart>
+        <c:gapWidth val="150"/>
+        <c:axId val="284112384"/>
+        <c:axId val="284113920"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="118737920"/>
+        <c:axId val="284112384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -365,7 +399,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120267520"/>
+        <c:crossAx val="284113920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -373,7 +407,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="120267520"/>
+        <c:axId val="284113920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -384,7 +418,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118737920"/>
+        <c:crossAx val="284112384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -406,20 +440,292 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$P$3:$P$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>me 30/08</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>me 13/09</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$3:$R$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>45.62</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43.96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$3:$Q$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>47.89</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52.89</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="284121728"/>
+        <c:axId val="284139904"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="284121728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="284139904"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="284139904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="40"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="284121728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>40.375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.958300000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40.916699999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.916699999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.541699999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40.409999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40.916699999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42.041699999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41.541699999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="283488640"/>
+        <c:axId val="283490176"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="283488640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="283490176"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="283490176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="283488640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -433,6 +739,68 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>195262</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>500062</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -763,10 +1131,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,83 +1143,180 @@
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
     <col min="4" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" customWidth="1"/>
+    <col min="19" max="19" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C1" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C1" s="1">
+        <v>41881</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" s="1">
-        <v>41881</v>
-      </c>
-      <c r="C2">
-        <v>33.33</v>
-      </c>
-      <c r="D2">
-        <v>44.21</v>
-      </c>
-      <c r="E2">
-        <v>47.89</v>
-      </c>
-      <c r="F2">
-        <v>52.89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
       </c>
       <c r="B3" s="1">
         <v>41881</v>
       </c>
       <c r="C3">
+        <v>33.33</v>
+      </c>
+      <c r="D3">
+        <v>44.21</v>
+      </c>
+      <c r="E3">
+        <v>47.89</v>
+      </c>
+      <c r="F3">
+        <v>52.89</v>
+      </c>
+      <c r="P3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3">
+        <v>47.89</v>
+      </c>
+      <c r="R3">
+        <f>E5</f>
+        <v>45.62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>41881</v>
+      </c>
+      <c r="C4">
         <v>0.47139999999999999</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>0.4657</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>0.45619999999999999</v>
       </c>
-      <c r="F3">
+      <c r="F4">
         <v>0.43959999999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C4">
-        <f>C3*100</f>
+      <c r="P4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4">
+        <v>51.05</v>
+      </c>
+      <c r="R4">
+        <f>E22</f>
+        <v>44.72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <f>C4*100</f>
         <v>47.14</v>
       </c>
-      <c r="D4">
-        <f t="shared" ref="D4:F4" si="0">D3*100</f>
+      <c r="D5">
+        <f t="shared" ref="D5:F5" si="0">D4*100</f>
         <v>46.57</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <f t="shared" si="0"/>
         <v>45.62</v>
       </c>
-      <c r="F4">
+      <c r="F5">
         <f t="shared" si="0"/>
         <v>43.96</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E5">
-        <v>0.45429999999999998</v>
+      <c r="P5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q5">
+        <v>52.89</v>
+      </c>
+      <c r="R5">
+        <f>F5</f>
+        <v>43.96</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C18" s="1">
+        <v>41895</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>33.33</v>
+      </c>
+      <c r="D20">
+        <v>44.21</v>
+      </c>
+      <c r="E20">
+        <v>51.05</v>
+      </c>
+      <c r="F20">
+        <v>52.89</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>0.47139999999999999</v>
+      </c>
+      <c r="D21">
+        <v>0.4657</v>
+      </c>
+      <c r="E21">
+        <v>0.44719999999999999</v>
+      </c>
+      <c r="F21">
+        <v>0.43959999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <f>C21*100</f>
+        <v>47.14</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ref="D22:F22" si="1">D21*100</f>
+        <v>46.57</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>44.72</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>43.96</v>
       </c>
     </row>
   </sheetData>
